--- a/biology/Zoologie/Asthena_albulata/Asthena_albulata.xlsx
+++ b/biology/Zoologie/Asthena_albulata/Asthena_albulata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Phalène candide
 Asthena albulata, ou Phalène candide, est une espèce de lépidoptères (papillons) de la famille des Geometridae.
@@ -512,7 +524,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Phalaena albulata Hufnagel, 1767
 Geometra candidata Denis &amp; Schiffermüller, 1775</t>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'envergure d'Asthena albulata est de 14 à 18 mm. La couleur de fond des ailes est blanche (aspect soyeux). De fines lignes croisées brunes se trouvent sur les ailes antérieures et postérieures. Une rangée de points noirs marque la marge des deux ailes. 
 </t>
@@ -574,10 +590,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce papillon est présent dans toute l'Europe mais également au Proche-Orient.
-Asthena amurensis Stgr., du Paléarctique oriental, est plus petit, avec des points discaux distincts mais où manquent ceux de la marge distale[1]. La larve est mince, pâle avec de grandes taches rouges, avec des soies assez longues et foncées.
+Asthena amurensis Stgr., du Paléarctique oriental, est plus petit, avec des points discaux distincts mais où manquent ceux de la marge distale. La larve est mince, pâle avec de grandes taches rouges, avec des soies assez longues et foncées.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Deux générations se succèdent par année, avec des adultes en vol de mi-avril à août.
 Les larves se nourrissent de feuilles de noisetiers (Corylus avellana), de bouleaux (Betula) et parfois de charmes (Carpinus betulus). Les larves peuvent être trouvées de mai à septembre. Ce papillon hiverne sous forme de nymphe.
